--- a/data/trans_dic/P80_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P80_R-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.004499429820310927</v>
+        <v>0.004354464503260993</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0004812130239262482</v>
+        <v>0.0004914682194535699</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002935602119307346</v>
+        <v>0.002792851943686643</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02248608362481675</v>
+        <v>0.02156888452182949</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.006216167671526944</v>
+        <v>0.006388610883223525</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01180304871885898</v>
+        <v>0.01163540119742702</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01022722421573633</v>
+        <v>0.009711971360453035</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006886719276729367</v>
+        <v>0.00673478937229218</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01029389272052967</v>
+        <v>0.01019945483303102</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03328361130389241</v>
+        <v>0.03364473796589662</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01975389433586186</v>
+        <v>0.01897067644814528</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02276177518249412</v>
+        <v>0.02429423779668106</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.01770543638335026</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.02155863159790903</v>
+        <v>0.02155863159790904</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01382908839192494</v>
+        <v>0.01327198756793891</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.009576351320585165</v>
+        <v>0.00992999191751142</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01424118599904626</v>
+        <v>0.01408049928926534</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04621944023153505</v>
+        <v>0.04734453241081395</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02826763609653319</v>
+        <v>0.03015051752904643</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03356978402215543</v>
+        <v>0.03219091547365201</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.03248819448845331</v>
+        <v>0.03248819448845332</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.02363185113600414</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02137544877732287</v>
+        <v>0.0223483467663273</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01650446967003211</v>
+        <v>0.01509363419425779</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02152350891904383</v>
+        <v>0.02126757748384093</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04650211504137503</v>
+        <v>0.04769846813373262</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03323388952694806</v>
+        <v>0.03312027518075226</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03594629388377557</v>
+        <v>0.03634724911993671</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0173654670732716</v>
+        <v>0.01720105046248395</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01123533471323783</v>
+        <v>0.01107604936178827</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01552988884242722</v>
+        <v>0.01535720644111731</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03042448393576092</v>
+        <v>0.02949355497304706</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01898947263148371</v>
+        <v>0.01921320309891753</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02279040271801209</v>
+        <v>0.0225069527405774</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3108</v>
+        <v>3008</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4179</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15531</v>
+        <v>14898</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4555</v>
+        <v>4681</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16801</v>
+        <v>16562</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10720</v>
+        <v>10180</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7355</v>
+        <v>7193</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21784</v>
+        <v>21584</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>34887</v>
+        <v>35266</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>21097</v>
+        <v>20261</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>48168</v>
+        <v>51411</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11092</v>
+        <v>10645</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7743</v>
+        <v>8029</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>22937</v>
+        <v>22678</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>37072</v>
+        <v>37974</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22855</v>
+        <v>24377</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>54068</v>
+        <v>51847</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>21139</v>
+        <v>22101</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>18447</v>
+        <v>16870</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>45342</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>45988</v>
+        <v>47171</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>37145</v>
+        <v>37018</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>75725</v>
+        <v>76570</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>61299</v>
+        <v>60718</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>41873</v>
+        <v>41280</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>112698</v>
+        <v>111445</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>107396</v>
+        <v>104110</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>70772</v>
+        <v>71606</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>165387</v>
+        <v>163330</v>
       </c>
     </row>
     <row r="24">
